--- a/AEW Data.xlsx
+++ b/AEW Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjw/Documents/JOUR71105_webdev/Assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B3799-62ED-C84A-B5B6-3C9F492CEDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9FC1C-0504-A34F-B975-74DC427DDE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1300" windowWidth="28720" windowHeight="18060" activeTab="2" xr2:uid="{DC098BB2-0427-B741-B7F8-4E72B1D9E709}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="20820" windowHeight="18060" xr2:uid="{DC098BB2-0427-B741-B7F8-4E72B1D9E709}"/>
   </bookViews>
   <sheets>
     <sheet name="Wrestler Time of Matches" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
   <si>
     <t>Average match duration (seconds)</t>
   </si>
@@ -476,21 +476,6 @@
   </si>
   <si>
     <t>Twitter Followers</t>
-  </si>
-  <si>
-    <t>Maxwell Jacob Friedman</t>
-  </si>
-  <si>
-    <t>MJF</t>
-  </si>
-  <si>
-    <t>Pentagon Jr.</t>
-  </si>
-  <si>
-    <t>MJF Total:</t>
-  </si>
-  <si>
-    <t>Penta Total:</t>
   </si>
 </sst>
 </file>
@@ -971,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EFD251-43FF-C448-B0D2-F5A64F488015}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,36 +1709,6 @@
       <c r="A32" s="6"/>
       <c r="F32" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3926,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20B6576-B3B7-9A4B-B46B-9B8A02FCC557}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
